--- a/assets/form/LKP/PKPPO.xlsx
+++ b/assets/form/LKP/PKPPO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\flutterDartProjects\nov1\assets\form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\flutterDartProjects\nov1\assets\form\LKP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74C1695B-9E7D-4CED-892B-DB705D013D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2770D113-E884-4A09-8F78-7156BAFF0776}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1731C26E-36C6-470A-ADF9-D98A7D07A071}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1731C26E-36C6-470A-ADF9-D98A7D07A071}"/>
   </bookViews>
   <sheets>
     <sheet name="PKPPO" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t xml:space="preserve">(ФИО) </t>
   </si>
@@ -98,6 +98,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Температура воздуха, </t>
@@ -108,6 +110,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t>о</t>
@@ -117,6 +121,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t>С</t>
@@ -138,24 +144,35 @@
     <t xml:space="preserve">контроля качества подготовки поверхности к окраске </t>
   </si>
   <si>
-    <t xml:space="preserve">от «_____» _____________ 20____ г. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Протокол №___________ </t>
   </si>
   <si>
     <t xml:space="preserve">СТО Газпром 9.1 – 035 – 2014 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">от </t>
+  </si>
+  <si>
+    <t>СТО Газпром 9.1-035-2014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,6 +205,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -298,32 +327,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -640,30 +673,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A04B25-12B7-4EBC-B80A-2A7C07530E13}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D4" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D5" s="14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E4" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -695,28 +728,28 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="8"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
@@ -864,7 +897,9 @@
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
